--- a/sim03/GRADE/Sim03_736722/Sim03_GradingForm_736722.xlsx
+++ b/sim03/GRADE/Sim03_736722/Sim03_GradingForm_736722.xlsx
@@ -382,25 +382,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">performs an infinite loop on the 1st process </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">that occurs. After testing this with different metadata</t>
-    </r>
+    <t xml:space="preserve">performs an infinite loop on the 1st process that occurs. After testing this with different metadata</t>
   </si>
   <si>
     <t xml:space="preserve"> files it appears this may be in an issue with the PCBDataType *queueProcess() function on line 264</t>
@@ -776,7 +758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -859,12 +841,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -882,7 +858,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -961,7 +937,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1038,19 +1014,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1149,9 +1121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>39240</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1165,7 +1137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9385200" y="15971040"/>
-          <a:ext cx="3976200" cy="5733360"/>
+          <a:ext cx="3975840" cy="5733000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,9 +1158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1202,7 +1174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13321800" y="15951600"/>
-          <a:ext cx="4128480" cy="5953320"/>
+          <a:ext cx="4128120" cy="5952960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,37 +1195,48 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>486000</xdr:colOff>
+      <xdr:colOff>485640</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Image 3"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17635320" y="15951600"/>
-          <a:ext cx="4154760" cy="5991120"/>
+          <a:ext cx="4154400" cy="5990760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill rotWithShape="0">
           <a:blip r:embed="rId3"/>
+          <a:srcRect/>
           <a:stretch/>
         </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1277,9 +1260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,7 +1276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8809920" y="32575680"/>
-          <a:ext cx="6451920" cy="1580400"/>
+          <a:ext cx="6451560" cy="1580040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,37 +1297,48 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
+      <xdr:colOff>359640</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Image 5"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8809920" y="10972800"/>
-          <a:ext cx="5516280" cy="4962600"/>
+          <a:ext cx="5515920" cy="4962240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill rotWithShape="0">
           <a:blip r:embed="rId5"/>
+          <a:srcRect/>
           <a:stretch/>
         </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1368,9 +1362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>519840</xdr:colOff>
+      <xdr:colOff>519480</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1384,7 +1378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9454680" y="23821920"/>
-          <a:ext cx="6254280" cy="4984920"/>
+          <a:ext cx="6253920" cy="4984560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,8 +1400,8 @@
   </sheetPr>
   <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K175" activeCellId="0" sqref="K175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N177" activeCellId="0" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1833,7 +1827,7 @@
       <c r="N51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F52" s="18"/>
@@ -1847,7 +1841,7 @@
       <c r="N52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="18"/>
@@ -1987,7 +1981,7 @@
       <c r="N66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F67" s="18"/>
@@ -2001,7 +1995,7 @@
       <c r="N67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F68" s="18"/>
@@ -2015,7 +2009,7 @@
       <c r="N68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F69" s="18"/>
@@ -2102,7 +2096,7 @@
       <c r="N76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F77" s="18"/>
@@ -2116,7 +2110,7 @@
       <c r="N77" s="18"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F78" s="18"/>
@@ -2217,7 +2211,7 @@
       <c r="N86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>70</v>
       </c>
       <c r="F87" s="18"/>
@@ -2231,7 +2225,7 @@
       <c r="N87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>71</v>
       </c>
       <c r="F88" s="18"/>
@@ -2276,7 +2270,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="15" t="n">
         <v>5</v>
@@ -2308,7 +2302,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="15" t="n">
         <v>5</v>
@@ -2353,46 +2347,46 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="18" t="s">
@@ -2419,7 +2413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="B105" s="15" t="n">
         <v>10</v>
@@ -2451,7 +2445,7 @@
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
     </row>
-    <row r="106" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
       <c r="B106" s="15" t="n">
         <v>10</v>
@@ -2483,7 +2477,7 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
     </row>
-    <row r="107" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="15" t="n">
         <v>10</v>
@@ -2515,7 +2509,7 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
     </row>
-    <row r="108" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="B108" s="15" t="n">
         <v>10</v>
@@ -2574,7 +2568,7 @@
       <c r="N110" s="17"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="18" t="s">
         <v>87</v>
       </c>
       <c r="F111" s="18"/>
@@ -2588,7 +2582,7 @@
       <c r="N111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F112" s="18"/>
@@ -2637,7 +2631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="15" t="n">
         <v>15</v>
@@ -2669,7 +2663,7 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
     </row>
-    <row r="120" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="15" t="n">
         <v>5</v>
@@ -2701,7 +2695,7 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
     </row>
-    <row r="121" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="15" t="n">
         <v>5</v>
@@ -2733,7 +2727,7 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="15" t="n">
         <v>5</v>
@@ -2765,7 +2759,7 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
     </row>
-    <row r="123" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="15" t="n">
         <v>5</v>
@@ -2824,7 +2818,7 @@
       <c r="N125" s="17"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="18" t="s">
         <v>99</v>
       </c>
       <c r="F126" s="18"/>
@@ -2838,7 +2832,7 @@
       <c r="N126" s="18"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F127" s="18"/>
@@ -2882,7 +2876,7 @@
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="14"/>
     </row>
-    <row r="134" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15" t="n">
@@ -2912,7 +2906,7 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
     </row>
-    <row r="135" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15" t="n">
@@ -2942,7 +2936,7 @@
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
     </row>
-    <row r="136" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15" t="n">
@@ -2972,7 +2966,7 @@
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
     </row>
-    <row r="137" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15" t="n">
@@ -3002,7 +2996,7 @@
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
     </row>
-    <row r="138" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15" t="n">
@@ -3032,7 +3026,7 @@
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
     </row>
-    <row r="139" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15" t="n">
@@ -3062,7 +3056,7 @@
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
     </row>
-    <row r="140" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15" t="n">
@@ -3092,7 +3086,7 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
     </row>
-    <row r="141" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15" t="n">
@@ -3122,7 +3116,7 @@
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
     </row>
-    <row r="142" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15" t="n">
@@ -3152,7 +3146,7 @@
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
     </row>
-    <row r="143" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15" t="n">
@@ -3182,7 +3176,7 @@
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
     </row>
-    <row r="144" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15" t="n">
@@ -3212,7 +3206,7 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
     </row>
-    <row r="145" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15" t="n">
@@ -3242,7 +3236,7 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
     </row>
-    <row r="146" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15" t="n">
@@ -3272,7 +3266,7 @@
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
     </row>
-    <row r="147" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15" t="n">
@@ -3302,7 +3296,7 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
     </row>
-    <row r="148" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15" t="n">
@@ -3332,7 +3326,7 @@
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
     </row>
-    <row r="149" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15" t="n">
@@ -3362,7 +3356,7 @@
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
     </row>
-    <row r="150" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15" t="n">
@@ -3392,7 +3386,7 @@
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
     </row>
-    <row r="151" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15" t="n">
@@ -3479,7 +3473,7 @@
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="14"/>
     </row>
-    <row r="160" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3505,7 +3499,7 @@
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
     </row>
-    <row r="161" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3531,7 +3525,7 @@
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
     </row>
-    <row r="162" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3555,7 +3549,7 @@
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
     </row>
-    <row r="163" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3587,7 +3581,7 @@
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="14"/>
     </row>
-    <row r="167" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15" t="n">
@@ -3617,7 +3611,7 @@
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
     </row>
-    <row r="168" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15" t="n">
@@ -3647,7 +3641,7 @@
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
     </row>
-    <row r="169" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15" t="n">
@@ -3677,7 +3671,7 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
     </row>
-    <row r="170" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15" t="n">
@@ -3707,7 +3701,7 @@
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
     </row>
-    <row r="171" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15" t="n">
@@ -3737,7 +3731,7 @@
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
     </row>
-    <row r="172" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15" t="n">
@@ -3767,7 +3761,7 @@
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
     </row>
-    <row r="173" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15" t="n">
@@ -3809,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3835,7 +3829,7 @@
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
     </row>
-    <row r="176" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3861,7 +3855,7 @@
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
     </row>
-    <row r="177" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3885,7 +3879,7 @@
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
     </row>
-    <row r="178" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3910,22 +3904,22 @@
       <c r="V178" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="23"/>
-      <c r="B180" s="24" t="s">
+      <c r="A180" s="22"/>
+      <c r="B180" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="23"/>
-      <c r="H180" s="23"/>
-      <c r="I180" s="23"/>
-      <c r="J180" s="23"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="23"/>
-      <c r="M180" s="23"/>
-      <c r="N180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="22"/>
+      <c r="J180" s="22"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="22"/>
+      <c r="M180" s="22"/>
+      <c r="N180" s="22"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1" t="s">
@@ -3935,7 +3929,7 @@
         <f aca="false">C31+C45+C64+C74+C84+C96+C109+C124+C152+C158+C174</f>
         <v>195</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="24" t="s">
         <v>142</v>
       </c>
       <c r="H182" s="2" t="n">
@@ -3951,7 +3945,7 @@
         <f aca="false">CEILING(F182*H183/H182,1)</f>
         <v>96</v>
       </c>
-      <c r="G183" s="25" t="s">
+      <c r="G183" s="24" t="s">
         <v>142</v>
       </c>
       <c r="H183" s="2" t="n">
@@ -3974,7 +3968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3998,7 +3992,7 @@
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
     </row>
-    <row r="188" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4022,7 +4016,7 @@
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
     </row>
-    <row r="189" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4046,7 +4040,7 @@
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
     </row>
-    <row r="190" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4081,7 +4075,7 @@
         <f aca="false">CEILING(A193*(F183+C185),1)</f>
         <v>96</v>
       </c>
-      <c r="G193" s="25" t="s">
+      <c r="G193" s="24" t="s">
         <v>142</v>
       </c>
       <c r="H193" s="2" t="n">
